--- a/2024-results/medium-term-runs/2024 Mediumterm Only Results.xlsx
+++ b/2024-results/medium-term-runs/2024 Mediumterm Only Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon.brodziak\Desktop\2024 WCNPO MLS Rebuilding\2024 Results\medium-term-runs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon.brodziak\Desktop\2024 WCNPO MLS Rebuilding\2024-results\medium-term-runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383A7A02-4984-482C-B73D-7CD76AA6358F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86538FEA-D86A-4552-A0D5-A1159C63C56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="135">
   <si>
     <t>Age</t>
   </si>
@@ -316,13 +316,7 @@
     <t>QREBUILD4 CATCH TRAJECTORIES</t>
   </si>
   <si>
-    <t>Constant F Rebuild</t>
-  </si>
-  <si>
     <t>Constant Quota Rebuild</t>
-  </si>
-  <si>
-    <t>Contant Quota Rebuild</t>
   </si>
   <si>
     <r>
@@ -409,15 +403,6 @@
     <t>Probability of Overfishing</t>
   </si>
   <si>
-    <t>Constant F Rebuild  Catch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constant Quota Rebuild Catch </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constant Fmsy Catch </t>
-  </si>
-  <si>
     <t>Average 2025-2034</t>
   </si>
   <si>
@@ -425,12 +410,6 @@
   </si>
   <si>
     <t>Percent of Maximum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constant Quota Rebuild </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constant Fmsy </t>
   </si>
   <si>
     <t>Apr</t>
@@ -473,6 +452,21 @@
   </si>
   <si>
     <t>WCNPO Striped Marlin Rebuilding Scenarios Under Medium-term Recruitment</t>
+  </si>
+  <si>
+    <t>Constant F</t>
+  </si>
+  <si>
+    <t>Constant Catch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fmsy </t>
+  </si>
+  <si>
+    <t>Rebuilding Scenarios Under Medium-term Recruitment</t>
+  </si>
+  <si>
+    <t>Contant Catch</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1077,7 @@
   <sheetData>
     <row r="1" spans="1:65" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A1" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:65" ht="18" x14ac:dyDescent="0.45">
@@ -1096,7 +1090,7 @@
     </row>
     <row r="4" spans="1:65" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="67" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" s="67"/>
       <c r="D4" s="67"/>
@@ -1108,7 +1102,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="67" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M4" s="67"/>
       <c r="N4" s="67"/>
@@ -1121,7 +1115,7 @@
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
       <c r="W4" s="67" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="X4" s="67"/>
       <c r="Y4" s="67"/>
@@ -1138,7 +1132,7 @@
     </row>
     <row r="5" spans="1:65" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="68" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
@@ -1150,7 +1144,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="69" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="M5" s="69"/>
       <c r="N5" s="69"/>
@@ -1163,7 +1157,7 @@
       <c r="U5" s="43"/>
       <c r="V5" s="13"/>
       <c r="W5" s="68" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="X5" s="68"/>
       <c r="Y5" s="68"/>
@@ -1183,25 +1177,25 @@
         <v>22</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F6" s="42" t="s">
         <v>68</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>70</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -1209,25 +1203,25 @@
         <v>22</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N6" s="30" t="s">
         <v>69</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P6" s="42" t="s">
         <v>68</v>
       </c>
       <c r="Q6" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R6" s="30" t="s">
         <v>70</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
@@ -1236,25 +1230,25 @@
         <v>22</v>
       </c>
       <c r="X6" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Y6" s="30" t="s">
         <v>69</v>
       </c>
       <c r="Z6" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AA6" s="30" t="s">
         <v>68</v>
       </c>
       <c r="AB6" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AC6" s="30" t="s">
         <v>70</v>
       </c>
       <c r="AD6" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE6" s="40"/>
       <c r="AF6" s="40"/>
@@ -5025,7 +5019,7 @@
   <sheetData>
     <row r="1" spans="1:62" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A1" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:62" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
@@ -5066,7 +5060,7 @@
     </row>
     <row r="4" spans="1:62" s="4" customFormat="1" ht="26.6" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B4" s="68" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -5078,7 +5072,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
       <c r="L4" s="68" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M4" s="68"/>
       <c r="N4" s="68"/>
@@ -5090,7 +5084,7 @@
       <c r="T4" s="27"/>
       <c r="U4" s="13"/>
       <c r="V4" s="68" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="W4" s="68"/>
       <c r="X4" s="68"/>
@@ -5141,25 +5135,25 @@
         <v>22</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>68</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H5" s="30" t="s">
         <v>70</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
@@ -5167,25 +5161,25 @@
         <v>22</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N5" s="30" t="s">
         <v>69</v>
       </c>
       <c r="O5" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P5" s="30" t="s">
         <v>68</v>
       </c>
       <c r="Q5" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R5" s="30" t="s">
         <v>70</v>
       </c>
       <c r="S5" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T5" s="25"/>
       <c r="U5" s="13"/>
@@ -5193,25 +5187,25 @@
         <v>22</v>
       </c>
       <c r="W5" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="X5" s="30" t="s">
         <v>69</v>
       </c>
       <c r="Y5" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Z5" s="30" t="s">
         <v>68</v>
       </c>
       <c r="AA5" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AB5" s="30" t="s">
         <v>70</v>
       </c>
       <c r="AC5" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE5" s="9" t="s">
         <v>73</v>
@@ -8971,7 +8965,7 @@
   <sheetData>
     <row r="1" spans="1:72" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A1" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -9053,7 +9047,7 @@
     </row>
     <row r="5" spans="1:72" ht="21.45" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="68" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
@@ -9063,7 +9057,7 @@
       <c r="H5" s="68"/>
       <c r="I5" s="68"/>
       <c r="L5" s="69" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="M5" s="69"/>
       <c r="N5" s="69"/>
@@ -9073,7 +9067,7 @@
       <c r="R5" s="69"/>
       <c r="S5" s="69"/>
       <c r="U5" s="68" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="V5" s="68"/>
       <c r="W5" s="68"/>
@@ -9085,7 +9079,7 @@
       <c r="AI5" s="13"/>
       <c r="AJ5" s="13"/>
       <c r="AK5" s="65" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AL5" s="65"/>
       <c r="AM5" s="65"/>
@@ -9095,78 +9089,78 @@
         <v>22</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F6" s="42" t="s">
         <v>68</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>70</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L6" s="30" t="s">
         <v>22</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N6" s="30" t="s">
         <v>69</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P6" s="42" t="s">
         <v>68</v>
       </c>
       <c r="Q6" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R6" s="30" t="s">
         <v>70</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U6" s="30" t="s">
         <v>22</v>
       </c>
       <c r="V6" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="W6" s="30" t="s">
         <v>69</v>
       </c>
       <c r="X6" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Y6" s="42" t="s">
         <v>68</v>
       </c>
       <c r="Z6" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AA6" s="30" t="s">
         <v>70</v>
       </c>
       <c r="AB6" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AI6" s="13"/>
       <c r="AJ6" s="14"/>
       <c r="AK6" s="67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL6" s="67"/>
       <c r="AM6" s="67"/>
@@ -12330,60 +12324,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="4" width="11.921875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="13.15234375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="3.69140625" style="13" customWidth="1"/>
     <col min="6" max="8" width="11.69140625" style="13" customWidth="1"/>
     <col min="9" max="9" width="11.921875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A1" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="72" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B3" s="72"/>
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
       <c r="F3" s="72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G3" s="72"/>
       <c r="H3" s="72"/>
       <c r="I3" s="72"/>
     </row>
-    <row r="4" spans="1:9" ht="46.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="31.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="30" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="H4" s="46" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="I4" s="50" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -12808,24 +12804,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028C4F4E-E025-48AF-AFA4-D088B40154CA}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:N21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" style="12" customWidth="1"/>
     <col min="2" max="4" width="10.69140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="7.69140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="2.69140625" style="12" customWidth="1"/>
     <col min="6" max="6" width="11" style="12" customWidth="1"/>
     <col min="7" max="9" width="10.69140625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="9.23046875" style="24"/>
+    <col min="10" max="10" width="3.15234375" style="24" customWidth="1"/>
     <col min="11" max="11" width="10.3046875" style="24" customWidth="1"/>
     <col min="12" max="14" width="9.53515625" style="24" customWidth="1"/>
     <col min="15" max="16384" width="9.23046875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="26.15" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:14" ht="24.45" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F1" s="51"/>
     </row>
@@ -12835,7 +12833,7 @@
     </row>
     <row r="3" spans="1:14" ht="20.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="73" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="73"/>
       <c r="C3" s="73"/>
@@ -12853,43 +12851,43 @@
       <c r="M3" s="73"/>
       <c r="N3" s="73"/>
     </row>
-    <row r="4" spans="1:14" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="30" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="H4" s="46" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K4" s="30" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="46" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="M4" s="46" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="N4" s="46" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.45">
@@ -13467,7 +13465,7 @@
     </row>
     <row r="19" spans="1:14" ht="33.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="50" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B19" s="48">
         <f>AVERAGE(B9:B18)</f>
@@ -13483,7 +13481,7 @@
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="50" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G19" s="48">
         <f>AVERAGE(G9:G18)</f>
@@ -13498,7 +13496,7 @@
         <v>2466.2599999999998</v>
       </c>
       <c r="K19" s="50" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L19" s="57">
         <f>AVERAGE(L9:L18)</f>
@@ -13515,7 +13513,7 @@
     </row>
     <row r="20" spans="1:14" ht="36.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="50" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B20" s="48">
         <f>SUM(B9:B18)</f>
@@ -13531,7 +13529,7 @@
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="50" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G20" s="48">
         <f>SUM(G9:G18)</f>
@@ -13552,7 +13550,7 @@
     </row>
     <row r="21" spans="1:14" ht="35.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="50" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B21" s="49">
         <f>B20/MAX($B20:$C20)</f>
@@ -13568,7 +13566,7 @@
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="50" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G21" s="49">
         <f>G20/MAX($G20:$H20)</f>
@@ -13630,7 +13628,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -13653,7 +13651,7 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H5">
         <v>2024</v>
@@ -13673,7 +13671,7 @@
         <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -13797,16 +13795,16 @@
         <v>49</v>
       </c>
       <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" t="s">
         <v>95</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -13828,31 +13826,31 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" t="s">
         <v>99</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>100</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>101</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>102</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>103</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>104</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>105</v>
-      </c>
-      <c r="J21" t="s">
-        <v>106</v>
-      </c>
-      <c r="K21" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -28454,7 +28452,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -28477,7 +28475,7 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H5">
         <v>2024</v>
@@ -28497,7 +28495,7 @@
         <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -28621,16 +28619,16 @@
         <v>49</v>
       </c>
       <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" t="s">
         <v>95</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -28678,31 +28676,31 @@
         <v>40</v>
       </c>
       <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" t="s">
         <v>99</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>100</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>101</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>102</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>103</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>104</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>105</v>
-      </c>
-      <c r="J23" t="s">
-        <v>106</v>
-      </c>
-      <c r="K23" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -43304,7 +43302,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -43327,7 +43325,7 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H5">
         <v>2024</v>
@@ -43347,7 +43345,7 @@
         <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -43471,16 +43469,16 @@
         <v>49</v>
       </c>
       <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" t="s">
         <v>95</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -43502,31 +43500,31 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" t="s">
         <v>99</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>100</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>101</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>102</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>103</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>104</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>105</v>
-      </c>
-      <c r="J21" t="s">
-        <v>106</v>
-      </c>
-      <c r="K21" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
